--- a/data/n2v/tables/model-1-1325-20230829-20.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-20.xlsx
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
